--- a/medicine/Sexualité et sexologie/Glue_(film)/Glue_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Glue_(film)/Glue_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glue est un film argentin réalisé par Alexis Dos Santos, sorti en 2006.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Zapala, Lucas et son ami Nacho rencontrent Andrea. Les trois explorent la prise de drogue et le sexe.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Glue
 Réalisation : Alexis Dos Santos
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nahuel Pérez Biscayart : Lucas
 Nahuel Viale : Nacho
@@ -622,9 +640,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, le film a obtenu le prix du meilleur premier film au Festival du film Frameline et le prix spécial du jury au Festival du film gay et lesbien de Turin[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, le film a obtenu le prix du meilleur premier film au Festival du film Frameline et le prix spécial du jury au Festival du film gay et lesbien de Turin.
 </t>
         </is>
       </c>
